--- a/data/Investment_Calibration.xlsx
+++ b/data/Investment_Calibration.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brettdevine/repos/h2-adoption-model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C9890E-7C6B-8E4C-90E1-F2A6CB70AD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5092B5D8-7274-3847-A94A-4E1D6DD6934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{FEC892F6-172E-684F-8DA4-6289A856E37E}"/>
+    <workbookView xWindow="22620" yWindow="10260" windowWidth="27640" windowHeight="16940" xr2:uid="{FEC892F6-172E-684F-8DA4-6289A856E37E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
